--- a/ProcessedData/conf_rbf_SVM_early_fusion_3.xlsx
+++ b/ProcessedData/conf_rbf_SVM_early_fusion_3.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.03006877990386648</v>
+        <v>0.2961033648009428</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063890105238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02623530542784485</v>
+        <v>0.3504902461885332</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04504777854714662</v>
+        <v>0.2927042909141265</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.023866966001312</v>
+        <v>0.3601062427744628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04398406485895901</v>
+        <v>0.3471894663114107</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9304251818548321</v>
+        <v>0.8161211728343735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9693483659948479</v>
+        <v>0.1242460768858781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1352441681838307</v>
+        <v>0.05963275027974839</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1142919251024894</v>
+        <v>0.4397312080788227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3222054034816407</v>
+        <v>0.3482506667541601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2581063576121864</v>
+        <v>0.2120181251670172</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03137782396217189</v>
+        <v>0.2961703241884955</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02478096169005984</v>
+        <v>0.3543452484056336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02931829953616634</v>
+        <v>0.3494844274058707</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.02872591814312538</v>
+        <v>0.2999228940963085</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01170412138551007</v>
+        <v>0.3562384942068437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03936953863160296</v>
+        <v>0.3438386116968476</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1024596200871067</v>
+        <v>0.3855602196470643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1467307431301492</v>
+        <v>0.3298665544717485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07484075295391346</v>
+        <v>0.284573225881187</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3808241432967343</v>
+        <v>0.5777878835183446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5227374651742615</v>
+        <v>0.2799862758956875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4240750251275698</v>
+        <v>0.1422258405859681</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02259831037068875</v>
+        <v>0.3284622322146651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03627101025772451</v>
+        <v>0.3448340912203868</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04640798903385693</v>
+        <v>0.3267036765649482</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02137979042205859</v>
+        <v>0.3838081374957645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2321458756876521</v>
+        <v>0.3867435110763948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3710311890311537</v>
+        <v>0.2294483514278408</v>
       </c>
       <c r="E11" t="n">
         <v>19</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.04267626105584997</v>
+        <v>0.3477935463049435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1529285214815706</v>
+        <v>0.3826738452395254</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2176860471160325</v>
+        <v>0.2695326084555311</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2737809950163674</v>
+        <v>0.2227029656163367</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1070128533211705</v>
+        <v>0.4317864691034021</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2126401917755911</v>
+        <v>0.345510565280261</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0736273074357276</v>
+        <v>0.2940541980214913</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.002539482489171012</v>
+        <v>0.3722662887965046</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09361325131557868</v>
+        <v>0.333679513182004</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2234687969110243</v>
+        <v>0.4564314486171035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2594880656739654</v>
+        <v>0.2999450770516777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.073031434697579</v>
+        <v>0.2436234743312187</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.02074215460083844</v>
+        <v>0.3009678832958195</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01650864292553723</v>
+        <v>0.3519569839440624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.026977387589056</v>
+        <v>0.3470751327601181</v>
       </c>
       <c r="E16" t="n">
         <v>19</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.03018886247752029</v>
+        <v>0.2960715067552542</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02656452780888597</v>
+        <v>0.3534546664427042</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02635505601495883</v>
+        <v>0.3504738268020416</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.08152184443070601</v>
+        <v>0.2921026561492749</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.003189867889149742</v>
+        <v>0.3748384696929548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09991440390955066</v>
+        <v>0.3330588741577704</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3367285598587671</v>
+        <v>0.239428988278124</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009483062696100015</v>
+        <v>0.4367023886624304</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1648214749887131</v>
+        <v>0.3238686230594456</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07749932823367695</v>
+        <v>0.3552077113212628</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2430536040931729</v>
+        <v>0.4154095028665304</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3617245002996455</v>
+        <v>0.2293827858122071</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.02925972895728361</v>
+        <v>0.2965102754435439</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02574286488444475</v>
+        <v>0.3532708548265108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02624914217970708</v>
+        <v>0.3502188697299451</v>
       </c>
       <c r="E22" t="n">
         <v>19</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03006882861534178</v>
+        <v>0.29603699376843</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02685039160790451</v>
+        <v>0.3533384260900645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02593871019281479</v>
+        <v>0.3506245801415056</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9574040955716541</v>
+        <v>0.04382370832040798</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9448149078065017</v>
+        <v>0.5982999345096173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5002498820616766</v>
+        <v>0.3578763571699746</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2887652378410711</v>
+        <v>0.17472674823957</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2963146404029752</v>
+        <v>0.416022138045218</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08728099841740897</v>
+        <v>0.4092511137152122</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3885801550989957</v>
+        <v>0.1176212392601635</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5120960106752888</v>
+        <v>0.3696133860887043</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2332089602454927</v>
+        <v>0.5127653746511323</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.05493543796731951</v>
+        <v>0.1284546070392367</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5895690313509625</v>
+        <v>0.2720940125443965</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5643103316057791</v>
+        <v>0.5994513804163667</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.6398703617483564</v>
+        <v>0.08672531087108724</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6430432587962718</v>
+        <v>0.5719168371257562</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5369686979314773</v>
+        <v>0.3413578520031566</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.03016317265900555</v>
+        <v>0.2419153463963944</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1891158557189498</v>
+        <v>0.3308517946901907</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1413116555840414</v>
+        <v>0.4272328589134148</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.296097744537981</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02658877033341401</v>
+        <v>0.3534006735750335</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02621043623733302</v>
+        <v>0.3505015818869854</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.555546860544235</v>
+        <v>0.1114236375405753</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.482170210250905</v>
+        <v>0.5705293220831115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6138066144215774</v>
+        <v>0.3180470403763133</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.2952285103082654</v>
+        <v>0.1264924050277725</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5076900982569738</v>
+        <v>0.3413492457240407</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3241759975794125</v>
+        <v>0.5321583492481868</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.09050463818466553</v>
+        <v>0.1676508266311658</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4116506493360407</v>
+        <v>0.3089208982890407</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3580499195435978</v>
+        <v>0.5234282750797936</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.01786768400597846</v>
+        <v>0.3022559304192342</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01436841945000719</v>
+        <v>0.3512794736909655</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02623018124079243</v>
+        <v>0.3464645958898003</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2684693149504093</v>
+        <v>0.1905033398221609</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2442165541760647</v>
+        <v>0.4474345208922939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2830676774241329</v>
+        <v>0.362062139285545</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.144990576719119</v>
+        <v>0.3109375403571655</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1319907306953536</v>
+        <v>0.4204506457217997</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2935610487323341</v>
+        <v>0.2686118139210346</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.5273433502951331</v>
+        <v>0.1259617182827118</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3890070733363569</v>
+        <v>0.4976627505880634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3076557281077051</v>
+        <v>0.3763755311292249</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1590772090957499</v>
+        <v>0.2868101798677439</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05214327351121788</v>
+        <v>0.4918854943157633</v>
       </c>
       <c r="D38" t="n">
-        <v>0.845750020355297</v>
+        <v>0.2213043258164927</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.2717367232801263</v>
+        <v>0.2131626028404852</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1466446880789382</v>
+        <v>0.4319006081929991</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2122479500949328</v>
+        <v>0.3549367889665156</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.002184378678312</v>
+        <v>0.02655586824506883</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.029725807757635</v>
+        <v>0.2487975741250799</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.9342343210230883</v>
+        <v>0.7246465576298512</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.03641637417028943</v>
+        <v>0.2937630497861154</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02944047554813146</v>
+        <v>0.3552492664462637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02945723612941458</v>
+        <v>0.350987683767621</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.03006868017485492</v>
+        <v>0.2961034116865022</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.02656449540820901</v>
+        <v>0.353406369118891</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02623529327676154</v>
+        <v>0.3504902191946068</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.03006876727502656</v>
+        <v>0.296092921583552</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02660951368015957</v>
+        <v>0.3533957767982557</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02618912241442791</v>
+        <v>0.3505113016181921</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0497296331088433</v>
+        <v>0.2905568815127431</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.02793638046609849</v>
+        <v>0.3609752487978748</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04424489474029386</v>
+        <v>0.3484678696893821</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.6801592293120019</v>
+        <v>0.08283461184525978</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.6573220314176333</v>
+        <v>0.6048745419944935</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6676438449627677</v>
+        <v>0.3122908461602467</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2964434942664861</v>
+        <v>0.1029582351106123</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.6309829090412327</v>
+        <v>0.3034961329404421</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5250268526725278</v>
+        <v>0.5935456319489456</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.5166142343610048</v>
+        <v>0.1533150716325741</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2318784346913124</v>
+        <v>0.5268276095303805</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4882658459195406</v>
+        <v>0.3198573188370455</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.4649071400441963</v>
+        <v>0.1299539963615342</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.4058514958263273</v>
+        <v>0.4463774857841563</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1010698597600397</v>
+        <v>0.4236685178543095</v>
       </c>
       <c r="E50" t="n">
         <v>20</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1032505843326576</v>
+        <v>0.175520750206839</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.372448185541833</v>
+        <v>0.3054150530024079</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3825792306326033</v>
+        <v>0.5190641967907531</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8726790402853588</v>
+        <v>0.04578095556895247</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.9548919073658521</v>
+        <v>0.488419875310478</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08031682438433187</v>
+        <v>0.4657991691205694</v>
       </c>
       <c r="E52" t="n">
         <v>20</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.2464266042767852</v>
+        <v>0.2398765156500375</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.05494274955757932</v>
+        <v>0.4557712403232337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3923189635608016</v>
+        <v>0.3043522440267284</v>
       </c>
       <c r="E53" t="n">
         <v>20</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02421902641193566</v>
+        <v>0.3165521054748768</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.002933310574752018</v>
+        <v>0.3367715469338079</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.004788859392125686</v>
+        <v>0.3466763475913152</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2960966724457393</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.02659337938519714</v>
+        <v>0.3533995877817216</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02620571325442795</v>
+        <v>0.350503739772539</v>
       </c>
       <c r="E55" t="n">
         <v>20</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.07706328697743206</v>
+        <v>0.09641035419596598</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.7533388963868441</v>
+        <v>0.2436178755517715</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.7524969145566255</v>
+        <v>0.6599717702522626</v>
       </c>
       <c r="E56" t="n">
         <v>20</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1897028837627383</v>
+        <v>0.08815045402162924</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.7855863825478409</v>
+        <v>0.2687694863562021</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.6693961376518074</v>
+        <v>0.6430800596221685</v>
       </c>
       <c r="E57" t="n">
         <v>20</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.03006998703298254</v>
+        <v>0.296103044120441</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02656458283579928</v>
+        <v>0.3534068757132863</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02623651750591523</v>
+        <v>0.3504900801662727</v>
       </c>
       <c r="E58" t="n">
         <v>20</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1506244223564698</v>
+        <v>0.4520676563245821</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3218413586984554</v>
+        <v>0.3305686050271688</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1783578706970708</v>
+        <v>0.217363738648249</v>
       </c>
       <c r="E60" t="n">
         <v>20</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E61" t="n">
         <v>20</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001359961539080336</v>
+        <v>0.3121970669759189</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004791036787419298</v>
+        <v>0.3477760916021665</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02623556307662301</v>
+        <v>0.3400268414219144</v>
       </c>
       <c r="E62" t="n">
         <v>20</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.04924891448438241</v>
+        <v>0.2909741229697893</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02656688415179404</v>
+        <v>0.3611710515400307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04549513815095448</v>
+        <v>0.34785482549018</v>
       </c>
       <c r="E63" t="n">
         <v>21</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.0315038560766504</v>
+        <v>0.2954637736081311</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.02767810464363607</v>
+        <v>0.3537226499947327</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02653725708192658</v>
+        <v>0.3508135763971362</v>
       </c>
       <c r="E64" t="n">
         <v>21</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1597163004495447</v>
+        <v>0.4934257117420704</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5451917481771289</v>
+        <v>0.3843678349031215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8316051243572854</v>
+        <v>0.1222064533548079</v>
       </c>
       <c r="E65" t="n">
         <v>21</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5651079011796568</v>
+        <v>0.3991531865092286</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01797939275748027</v>
+        <v>0.1770659650122047</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.5782756788983306</v>
+        <v>0.4237808484785665</v>
       </c>
       <c r="E66" t="n">
         <v>21</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.4048434191236298</v>
+        <v>0.1681756607220203</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2466877473533677</v>
+        <v>0.4505241056090134</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1829935269788578</v>
+        <v>0.3813002336689659</v>
       </c>
       <c r="E67" t="n">
         <v>21</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5174178931152695</v>
+        <v>0.6798796809976294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8926961075295881</v>
+        <v>0.2535431078424882</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8318194221925306</v>
+        <v>0.06657721115988234</v>
       </c>
       <c r="E68" t="n">
         <v>21</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.400912882686299</v>
+        <v>0.6025671349497109</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6045896800151273</v>
+        <v>0.2942955485848796</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8974066129521904</v>
+        <v>0.1031373164654093</v>
       </c>
       <c r="E69" t="n">
         <v>21</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009854318454835399</v>
+        <v>0.17010493997038</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5014878151790417</v>
+        <v>0.3618427751366913</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008097332907506999</v>
+        <v>0.4680522848929289</v>
       </c>
       <c r="E70" t="n">
         <v>21</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2780293164247129</v>
+        <v>0.4925043600137467</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3223996817201729</v>
+        <v>0.2883340389995097</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1029102151506487</v>
+        <v>0.2191616009867435</v>
       </c>
       <c r="E71" t="n">
         <v>21</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4243966481076024</v>
+        <v>0.08287388171204334</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.7464188939131409</v>
+        <v>0.3526553718095495</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3510523648433552</v>
+        <v>0.564470746478407</v>
       </c>
       <c r="E72" t="n">
         <v>21</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2960163550652788</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02693873913857876</v>
+        <v>0.3533180658190858</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02585085401219677</v>
+        <v>0.3506655791156355</v>
       </c>
       <c r="E73" t="n">
         <v>21</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1242915355116284</v>
+        <v>0.2904388308851077</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0236824387124899</v>
+        <v>0.3954305497125126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1808044946349529</v>
+        <v>0.3141306194023798</v>
       </c>
       <c r="E74" t="n">
         <v>21</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.787957422284811</v>
+        <v>0.1000889771689172</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.3376883255252767</v>
+        <v>0.6017335491336059</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6593591002460801</v>
+        <v>0.2981774736974768</v>
       </c>
       <c r="E75" t="n">
         <v>21</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0936833049768121</v>
+        <v>0.4981804455145643</v>
       </c>
       <c r="C76" t="n">
-        <v>1.102759159959385</v>
+        <v>0.4266804983504511</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8741422266921067</v>
+        <v>0.07513905613498462</v>
       </c>
       <c r="E76" t="n">
         <v>21</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.03015146297588372</v>
+        <v>0.296066569185747</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02662846182537325</v>
+        <v>0.3534245516145765</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02625215233128303</v>
+        <v>0.3505088791996765</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3778384711992216</v>
+        <v>0.5066747938025365</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2803121655480739</v>
+        <v>0.2555050409270577</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01517719957819155</v>
+        <v>0.2378201652704056</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.5060615360162671</v>
+        <v>0.2235491824601032</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2152205442414127</v>
+        <v>0.5622238020922957</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6338015169012002</v>
+        <v>0.2142270154476011</v>
       </c>
       <c r="E79" t="n">
         <v>21</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1221759241032824</v>
+        <v>0.3328016463228652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2016434480269128</v>
+        <v>0.423711659912886</v>
       </c>
       <c r="D80" t="n">
-        <v>0.342067562912685</v>
+        <v>0.2434866937642489</v>
       </c>
       <c r="E80" t="n">
         <v>21</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3417781571464855</v>
+        <v>0.292452319375847</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4085091320182263</v>
+        <v>0.5183678995273353</v>
       </c>
       <c r="D81" t="n">
-        <v>0.492176614445247</v>
+        <v>0.1891797810968179</v>
       </c>
       <c r="E81" t="n">
         <v>21</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.6427722830028808</v>
+        <v>0.1061143103995778</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.4321736003789758</v>
+        <v>0.4819907788854241</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1740571075683089</v>
+        <v>0.4118949107149982</v>
       </c>
       <c r="E82" t="n">
         <v>21</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.09363014718713869</v>
+        <v>0.2885409648525898</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.006043078830260888</v>
+        <v>0.3788059419811159</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1097059086306613</v>
+        <v>0.3326530931662942</v>
       </c>
       <c r="E83" t="n">
         <v>21</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06372290545919063</v>
+        <v>0.4147328855979858</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2823070345565162</v>
+        <v>0.3488788271785493</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1254182142868911</v>
+        <v>0.2363882872234651</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3521639154931097</v>
+        <v>0.2216221458494581</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.03767921967502834</v>
+        <v>0.4726569724575242</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3598786391994069</v>
+        <v>0.3057208816930177</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0702972240459781</v>
+        <v>0.3134218741938259</v>
       </c>
       <c r="C86" t="n">
-        <v>0.05804443889262796</v>
+        <v>0.3816167951499081</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1680237328353252</v>
+        <v>0.304961330656266</v>
       </c>
       <c r="E86" t="n">
         <v>21</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7644837186785389</v>
+        <v>0.7759096715542493</v>
       </c>
       <c r="C87" t="n">
-        <v>1.02471129863556</v>
+        <v>0.1715494435392035</v>
       </c>
       <c r="D87" t="n">
-        <v>0.588097944918718</v>
+        <v>0.05254088490654692</v>
       </c>
       <c r="E87" t="n">
         <v>21</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1181733214818556</v>
+        <v>0.2810668979015297</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01293737719570559</v>
+        <v>0.3896408211392106</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1493254147646136</v>
+        <v>0.3292922809592598</v>
       </c>
       <c r="E88" t="n">
         <v>21</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.4849605118976911</v>
+        <v>0.1342179344233602</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.366253351406832</v>
+        <v>0.4461113989889163</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09527012741210779</v>
+        <v>0.4196706665877238</v>
       </c>
       <c r="E89" t="n">
         <v>21</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.09218988839191491</v>
+        <v>0.2910050887223272</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1048860899560458</v>
+        <v>0.3175548102287425</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.07138594089662841</v>
+        <v>0.3914401010489301</v>
       </c>
       <c r="E90" t="n">
         <v>22</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4982271921581869</v>
+        <v>0.6144678983935694</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5027158637856936</v>
+        <v>0.2228432696735667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02752352284671836</v>
+        <v>0.162688831932864</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.342411919044229</v>
+        <v>0.5185967705434954</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3401940132392559</v>
+        <v>0.2663396599999325</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05465719574402846</v>
+        <v>0.2150635694565721</v>
       </c>
       <c r="E92" t="n">
         <v>22</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4496392577257403</v>
+        <v>0.6005904827824625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5158891649295967</v>
+        <v>0.2449648821810606</v>
       </c>
       <c r="D93" t="n">
-        <v>0.160616704214723</v>
+        <v>0.1544446350364768</v>
       </c>
       <c r="E93" t="n">
         <v>22</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2440581323756886</v>
+        <v>0.5317033385256495</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5464128012625309</v>
+        <v>0.3246396345156018</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4057090507093189</v>
+        <v>0.1436570269587483</v>
       </c>
       <c r="E94" t="n">
         <v>22</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3497008999654024</v>
+        <v>0.6176061296065011</v>
       </c>
       <c r="C95" t="n">
-        <v>1.051800100350464</v>
+        <v>0.3258545149269062</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04604416729535</v>
+        <v>0.05653935546659273</v>
       </c>
       <c r="E95" t="n">
         <v>22</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2093071510513324</v>
+        <v>0.4273286937122583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1854236738038442</v>
+        <v>0.3123713004473407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.177046369407663</v>
+        <v>0.260300005840401</v>
       </c>
       <c r="E96" t="n">
         <v>22</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.121623637571864</v>
+        <v>0.4390413999579105</v>
       </c>
       <c r="C97" t="n">
-        <v>0.308169157816212</v>
+        <v>0.3398065631877238</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1925840817284282</v>
+        <v>0.2211520368543655</v>
       </c>
       <c r="E97" t="n">
         <v>22</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2321376347086753</v>
+        <v>0.4485177964735864</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2099779181461207</v>
+        <v>0.3467224577189924</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7189742652706188</v>
+        <v>0.204759745807421</v>
       </c>
       <c r="E98" t="n">
         <v>22</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09359637627181913</v>
+        <v>0.4301696427592439</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3076915734401787</v>
+        <v>0.3459233263675017</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1716913648280083</v>
+        <v>0.2239070308732545</v>
       </c>
       <c r="E99" t="n">
         <v>22</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.03033397491525925</v>
+        <v>0.295967316266423</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.02684533947036935</v>
+        <v>0.3534487641876307</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0262231672094837</v>
+        <v>0.3505839195459462</v>
       </c>
       <c r="E100" t="n">
         <v>22</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.003095415865872628</v>
+        <v>0.3112821881222771</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0008925861795292013</v>
+        <v>0.3457970918956588</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01873110217549969</v>
+        <v>0.3429207199820641</v>
       </c>
       <c r="E101" t="n">
         <v>22</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.0441201801463559</v>
+        <v>0.1090063627279732</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.692272340274443</v>
+        <v>0.2524050916975625</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.6798781403656833</v>
+        <v>0.6385885455744643</v>
       </c>
       <c r="E102" t="n">
         <v>22</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5595667447249156</v>
+        <v>0.5470269247748915</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2661352758724024</v>
+        <v>0.2106484934928596</v>
       </c>
       <c r="D103" t="n">
-        <v>0.007504456794724924</v>
+        <v>0.242324581732249</v>
       </c>
       <c r="E103" t="n">
         <v>22</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4169528372143697</v>
+        <v>0.4775208159965813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1855654933520099</v>
+        <v>0.2376036493154049</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.118661930131323</v>
+        <v>0.2848755346880139</v>
       </c>
       <c r="E104" t="n">
         <v>22</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03965453708178116</v>
+        <v>0.08316436016394341</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.7468638725699476</v>
+        <v>0.1267749113987912</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.532364726107473</v>
+        <v>0.7900607284372656</v>
       </c>
       <c r="E105" t="n">
         <v>22</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.247234162581921</v>
+        <v>0.2136197234360374</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.157153903032749</v>
+        <v>0.3930624621734967</v>
       </c>
       <c r="D106" t="n">
-        <v>0.005774612933843345</v>
+        <v>0.3933178143904658</v>
       </c>
       <c r="E106" t="n">
         <v>22</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2929876349298564</v>
+        <v>0.2565317939490844</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08671681081107253</v>
+        <v>0.5318234415018385</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8496341598561437</v>
+        <v>0.2116447645490769</v>
       </c>
       <c r="E107" t="n">
         <v>22</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4689686522386753</v>
+        <v>0.3999138557328001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001877320108916346</v>
+        <v>0.2187974604247133</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.2648451032650607</v>
+        <v>0.3812886838424863</v>
       </c>
       <c r="E108" t="n">
         <v>22</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4847648137483652</v>
+        <v>0.6499791489197689</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7230189659238084</v>
+        <v>0.2505555107476932</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4763461939113762</v>
+        <v>0.09946534033253798</v>
       </c>
       <c r="E109" t="n">
         <v>22</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.522896810890579</v>
+        <v>0.5427814585869599</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2745530112766283</v>
+        <v>0.202079999835198</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2498494414905981</v>
+        <v>0.2551385415778419</v>
       </c>
       <c r="E110" t="n">
         <v>22</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.03237740874311772</v>
+        <v>0.3526498463773489</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1023484108849056</v>
+        <v>0.4054967538843995</v>
       </c>
       <c r="D111" t="n">
-        <v>0.596410193983449</v>
+        <v>0.2418533997382518</v>
       </c>
       <c r="E111" t="n">
         <v>22</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.197635446292431</v>
+        <v>0.179545419748981</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.4551840194022754</v>
+        <v>0.2469933137953576</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.5135597156641222</v>
+        <v>0.5734612664556613</v>
       </c>
       <c r="E112" t="n">
         <v>22</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1624867636988765</v>
+        <v>0.144395952272092</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.4947218613617496</v>
+        <v>0.3406138354006271</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.2486328062325303</v>
+        <v>0.5149902123272809</v>
       </c>
       <c r="E113" t="n">
         <v>22</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2322921540047034</v>
+        <v>0.4070172391170349</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1174423399446708</v>
+        <v>0.2798132323966036</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1142130812116785</v>
+        <v>0.3131695284863614</v>
       </c>
       <c r="E114" t="n">
         <v>22</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5128439929964493</v>
+        <v>0.6518542450737923</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6473094073538639</v>
+        <v>0.2214822265119549</v>
       </c>
       <c r="D115" t="n">
-        <v>0.04411569064739591</v>
+        <v>0.1266635284142526</v>
       </c>
       <c r="E115" t="n">
         <v>22</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.03007316774548204</v>
+        <v>0.29507350721866</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.03099306524984703</v>
+        <v>0.3523437939205397</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02157632733653327</v>
+        <v>0.3525826988608003</v>
       </c>
       <c r="E116" t="n">
         <v>22</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3050138814833531</v>
+        <v>0.2181544687129086</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.09553275050058824</v>
+        <v>0.5376013459279989</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8407398441248444</v>
+        <v>0.2442441853590925</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.05395539955474744</v>
+        <v>0.1508682058875406</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.5180521364484364</v>
+        <v>0.255234759241159</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.583797431365452</v>
+        <v>0.5938970348713004</v>
       </c>
       <c r="E118" t="n">
         <v>22</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1230294310011927</v>
+        <v>0.3662432475942386</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4450322571750398</v>
+        <v>0.4867969765112269</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8143113632055857</v>
+        <v>0.1469597758945343</v>
       </c>
       <c r="E119" t="n">
         <v>22</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.5456244488654246</v>
+        <v>0.07112619247201275</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.8804278353049324</v>
+        <v>0.4456403420049759</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.002957041828648116</v>
+        <v>0.4832334655230109</v>
       </c>
       <c r="E120" t="n">
         <v>22</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8198670702064184</v>
+        <v>0.796766618581914</v>
       </c>
       <c r="C121" t="n">
-        <v>1.092985865329769</v>
+        <v>0.1587633343093502</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6672735946674704</v>
+        <v>0.04447004710873589</v>
       </c>
       <c r="E121" t="n">
         <v>23</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.6669408582352749</v>
+        <v>0.1456264470320633</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1514950405485649</v>
+        <v>0.5288745793254879</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4048355955403823</v>
+        <v>0.3254989736424486</v>
       </c>
       <c r="E122" t="n">
         <v>23</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05388041352694484</v>
+        <v>0.2920660208187867</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.0191362616032441</v>
+        <v>0.3615449705504138</v>
       </c>
       <c r="D123" t="n">
-        <v>0.038999030422485</v>
+        <v>0.3463890086307992</v>
       </c>
       <c r="E123" t="n">
         <v>23</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0298509687384223</v>
+        <v>0.3792964103710656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2761102121789107</v>
+        <v>0.3908248738662328</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2522731719172822</v>
+        <v>0.2298787157627013</v>
       </c>
       <c r="E124" t="n">
         <v>23</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4559629245338592</v>
+        <v>0.6588515381450526</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9468755211857053</v>
+        <v>0.275694339578104</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8179976355213665</v>
+        <v>0.0654541222768434</v>
       </c>
       <c r="E125" t="n">
         <v>23</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.02493259640921121</v>
+        <v>0.2989899816786395</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.02010460159688484</v>
+        <v>0.3528213960226587</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02753938843846305</v>
+        <v>0.3481886222987017</v>
       </c>
       <c r="E126" t="n">
         <v>23</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.07143108751306143</v>
+        <v>0.2827081950927057</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04195440195952699</v>
+        <v>0.361996293997383</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02796285811191805</v>
+        <v>0.3552955109099113</v>
       </c>
       <c r="E127" t="n">
         <v>23</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.07412887441904462</v>
+        <v>0.353218663569341</v>
       </c>
       <c r="C128" t="n">
-        <v>0.07987726788372181</v>
+        <v>0.333397945429176</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02875129033372194</v>
+        <v>0.3133833910014828</v>
       </c>
       <c r="E128" t="n">
         <v>23</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03006876921807452</v>
+        <v>0.2961033678551751</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.02656458191177949</v>
+        <v>0.3534063849170489</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0262352956292557</v>
+        <v>0.350490247227776</v>
       </c>
       <c r="E129" t="n">
         <v>23</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.0295463641576421</v>
+        <v>0.2963583970751456</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.02606741737242044</v>
+        <v>0.3533103826879247</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02620619159898437</v>
+        <v>0.3503312202369296</v>
       </c>
       <c r="E130" t="n">
         <v>23</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.01261260298731331</v>
+        <v>0.4277318563289378</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5956655179220267</v>
+        <v>0.4390855267225904</v>
       </c>
       <c r="D131" t="n">
-        <v>0.640273043483666</v>
+        <v>0.1331826169484718</v>
       </c>
       <c r="E131" t="n">
         <v>23</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.0840245832568051</v>
+        <v>0.3724754186135801</v>
       </c>
       <c r="C132" t="n">
-        <v>0.317393706918988</v>
+        <v>0.3983007910801671</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1628713501397399</v>
+        <v>0.229223790306253</v>
       </c>
       <c r="E132" t="n">
         <v>23</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.02633675791862727</v>
+        <v>0.2979685239222507</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.02284442806759392</v>
+        <v>0.3527633588286861</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02623530333754139</v>
+        <v>0.3492681172490629</v>
       </c>
       <c r="E133" t="n">
         <v>23</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.03268450348286013</v>
+        <v>0.2646057302184691</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1156254173052256</v>
+        <v>0.3439309789456677</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.05837501087781281</v>
+        <v>0.3914632908358629</v>
       </c>
       <c r="E134" t="n">
         <v>23</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1530599446627886</v>
+        <v>0.1524024600462007</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.4411461906790882</v>
+        <v>0.3016275430611477</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.4442675207896802</v>
+        <v>0.5459699968926519</v>
       </c>
       <c r="E135" t="n">
         <v>23</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4194903596404878</v>
+        <v>0.5309225787974756</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3159964291522921</v>
+        <v>0.2499403569920293</v>
       </c>
       <c r="D136" t="n">
-        <v>0.09326129844068602</v>
+        <v>0.2191370642104949</v>
       </c>
       <c r="E136" t="n">
         <v>23</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2592305189831339</v>
+        <v>0.3942042565955888</v>
       </c>
       <c r="C137" t="n">
-        <v>0.07273579212268626</v>
+        <v>0.2613612764179405</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.2444184055514491</v>
+        <v>0.3444344669864709</v>
       </c>
       <c r="E137" t="n">
         <v>23</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.06712010104731519</v>
+        <v>0.2944636517012003</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.005832857881015108</v>
+        <v>0.3707844661906164</v>
       </c>
       <c r="D138" t="n">
-        <v>0.09309019399589874</v>
+        <v>0.3347518821081835</v>
       </c>
       <c r="E138" t="n">
         <v>23</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.667292114495265e-05</v>
+        <v>0.2999709770989124</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.03175250176308175</v>
+        <v>0.3426918298971404</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.01117649986543474</v>
+        <v>0.3573371930039472</v>
       </c>
       <c r="E139" t="n">
         <v>23</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.2026315532052555</v>
+        <v>0.274345731512423</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04110324385531412</v>
+        <v>0.4262068222045182</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2573927084319569</v>
+        <v>0.2994474462830589</v>
       </c>
       <c r="E140" t="n">
         <v>23</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.186330003391678</v>
+        <v>0.2685953854515315</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.008090158181720292</v>
+        <v>0.3763047933890944</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.03522102933432644</v>
+        <v>0.355099821159374</v>
       </c>
       <c r="E141" t="n">
         <v>23</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.07681410069944428</v>
+        <v>0.4118589746971579</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8323657247087207</v>
+        <v>0.4965581563742671</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9806481944892846</v>
+        <v>0.09158286892857491</v>
       </c>
       <c r="E142" t="n">
         <v>23</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4538181207685235</v>
+        <v>0.6726856169995434</v>
       </c>
       <c r="C143" t="n">
-        <v>1.37571681993537</v>
+        <v>0.2758005928561924</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7048827844020542</v>
+        <v>0.0515137901442644</v>
       </c>
       <c r="E143" t="n">
         <v>23</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.158721888589819</v>
+        <v>0.2933556718291169</v>
       </c>
       <c r="C144" t="n">
-        <v>0.07309447218761372</v>
+        <v>0.4144995821152208</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2406057159619935</v>
+        <v>0.2921447460556622</v>
       </c>
       <c r="E144" t="n">
         <v>23</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.03484249261206705</v>
+        <v>0.3026059777526191</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.002444805735928288</v>
+        <v>0.3586740779445081</v>
       </c>
       <c r="D145" t="n">
-        <v>0.05500383240178297</v>
+        <v>0.3387199443028731</v>
       </c>
       <c r="E145" t="n">
         <v>23</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6387309643976902</v>
+        <v>0.7105356830949946</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7737679415822304</v>
+        <v>0.2043155973248824</v>
       </c>
       <c r="D146" t="n">
-        <v>0.49697393325936</v>
+        <v>0.08514871958012295</v>
       </c>
       <c r="E146" t="n">
         <v>23</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.03014287542148843</v>
+        <v>0.2960837000919921</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.02656455732527933</v>
+        <v>0.3534362024758011</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0263093414343955</v>
+        <v>0.3504800974322067</v>
       </c>
       <c r="E147" t="n">
         <v>23</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.03006875942830061</v>
+        <v>0.2961033721590536</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.02656457461179146</v>
+        <v>0.3534063826640073</v>
       </c>
       <c r="D148" t="n">
-        <v>0.02623529313212091</v>
+        <v>0.3504902451769391</v>
       </c>
       <c r="E148" t="n">
         <v>23</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.2753903386813288</v>
+        <v>0.319260210572648</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5884072687350443</v>
+        <v>0.5482042481603467</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8127588277987611</v>
+        <v>0.1325355412670051</v>
       </c>
       <c r="E149" t="n">
         <v>24</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7114559521725474</v>
+        <v>0.7367439658188351</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7905510221172922</v>
+        <v>0.1757522025530132</v>
       </c>
       <c r="D150" t="n">
-        <v>0.221982948024868</v>
+        <v>0.08750383162815194</v>
       </c>
       <c r="E150" t="n">
         <v>24</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.316483086967752</v>
+        <v>0.6087769043333268</v>
       </c>
       <c r="C151" t="n">
-        <v>1.348692390824855</v>
+        <v>0.3488682830810452</v>
       </c>
       <c r="D151" t="n">
-        <v>1.252626357436381</v>
+        <v>0.04235481258562806</v>
       </c>
       <c r="E151" t="n">
         <v>24</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D152" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.03006876221247373</v>
+        <v>0.2961033649982824</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.0265646022187362</v>
+        <v>0.353406377282069</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02623526763354318</v>
+        <v>0.3504902577196488</v>
       </c>
       <c r="E153" t="n">
         <v>24</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4475997166251116</v>
+        <v>0.6576672394006274</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9806586605366548</v>
+        <v>0.2744274209570539</v>
       </c>
       <c r="D154" t="n">
-        <v>0.686290467626727</v>
+        <v>0.06790533964231833</v>
       </c>
       <c r="E154" t="n">
         <v>24</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.03006876752270513</v>
+        <v>0.2961033681164544</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.02656458272232298</v>
+        <v>0.3534063840453689</v>
       </c>
       <c r="D155" t="n">
-        <v>0.02623529311262588</v>
+        <v>0.3504902478381769</v>
       </c>
       <c r="E155" t="n">
         <v>24</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D156" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E156" t="n">
         <v>24</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.03010075856045678</v>
+        <v>0.2960956701172348</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.02656115743289186</v>
+        <v>0.3534200696521584</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02627081047653869</v>
+        <v>0.350484260230607</v>
       </c>
       <c r="E157" t="n">
         <v>24</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.02940486851539048</v>
+        <v>0.2964348361104976</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.0259006837150068</v>
+        <v>0.3532926219619054</v>
       </c>
       <c r="D158" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3502725419275971</v>
       </c>
       <c r="E158" t="n">
         <v>24</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.08951167756017339</v>
+        <v>0.2758070016014857</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.04809667367333036</v>
+        <v>0.372106797083042</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06374776468139695</v>
+        <v>0.3520862013154722</v>
       </c>
       <c r="E159" t="n">
         <v>24</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.03006907947479845</v>
+        <v>0.2961032852813524</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.02656458281265246</v>
+        <v>0.3534065095164565</v>
       </c>
       <c r="D160" t="n">
-        <v>0.02623560461710656</v>
+        <v>0.350490205202191</v>
       </c>
       <c r="E160" t="n">
         <v>24</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.03005578735363107</v>
+        <v>0.2961098437362406</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.02655160819070774</v>
+        <v>0.3534041606055223</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02623528732007541</v>
+        <v>0.350485995658237</v>
       </c>
       <c r="E161" t="n">
         <v>24</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.09608801733244035</v>
+        <v>0.3226053762284985</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1254267344956902</v>
+        <v>0.4083938884198045</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2997383057728447</v>
+        <v>0.2690007353516971</v>
       </c>
       <c r="E162" t="n">
         <v>24</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.03005444416800668</v>
+        <v>0.2961105152871276</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.026550259367623</v>
+        <v>0.3534039319880665</v>
       </c>
       <c r="D163" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504855527248059</v>
       </c>
       <c r="E163" t="n">
         <v>24</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D164" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E164" t="n">
         <v>24</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.04261325712506899</v>
+        <v>0.2927894708387013</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.02642862859801352</v>
+        <v>0.358498036971006</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03890020754506689</v>
+        <v>0.3487124921902926</v>
       </c>
       <c r="E165" t="n">
         <v>24</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.02914529456821659</v>
+        <v>0.2965673219200591</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.02562894468422059</v>
+        <v>0.3532512051210727</v>
       </c>
       <c r="D166" t="n">
-        <v>0.02624925556551301</v>
+        <v>0.3501814729588684</v>
       </c>
       <c r="E166" t="n">
         <v>24</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8341134561378718</v>
+        <v>0.1621059969859233</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1054288799444272</v>
+        <v>0.5556405839993286</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3639396996478271</v>
+        <v>0.2822534190147477</v>
       </c>
       <c r="E167" t="n">
         <v>24</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9855167821707936</v>
+        <v>0.7850096176003737</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6963348418076626</v>
+        <v>0.1164213332555431</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08084085037683154</v>
+        <v>0.09856904914408315</v>
       </c>
       <c r="E168" t="n">
         <v>24</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1540095383643118</v>
+        <v>0.2792860456300593</v>
       </c>
       <c r="C169" t="n">
-        <v>0.008648145546908983</v>
+        <v>0.4024616978435496</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1845897285665578</v>
+        <v>0.3182522565263912</v>
       </c>
       <c r="E169" t="n">
         <v>24</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.03006876762360552</v>
+        <v>0.296103368064895</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.02656458282843674</v>
+        <v>0.3534063840614103</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02623529310726427</v>
+        <v>0.3504902478736946</v>
       </c>
       <c r="E170" t="n">
         <v>25</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.09008759007911057</v>
+        <v>0.305718217336668</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04821833222181228</v>
+        <v>0.3856840831265968</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1646470502670837</v>
+        <v>0.3085976995367352</v>
       </c>
       <c r="E171" t="n">
         <v>25</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1926275079045648</v>
+        <v>0.331207572007427</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3581022849510181</v>
+        <v>0.4984906385219084</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7352142721564229</v>
+        <v>0.1703017894706645</v>
       </c>
       <c r="E172" t="n">
         <v>25</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.05541249566982932</v>
+        <v>0.2895320579905227</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.02586693775626274</v>
+        <v>0.3635357676108981</v>
       </c>
       <c r="D173" t="n">
-        <v>0.05063542868703723</v>
+        <v>0.3469321743985792</v>
       </c>
       <c r="E173" t="n">
         <v>25</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5069562046425502</v>
+        <v>0.6281376562647565</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5527733123749993</v>
+        <v>0.2466302714544638</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5646444466968793</v>
+        <v>0.12523207228078</v>
       </c>
       <c r="E174" t="n">
         <v>25</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8818681073008049</v>
+        <v>0.8031517475540103</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9537061439934067</v>
+        <v>0.1393564033987187</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4076687740014788</v>
+        <v>0.05749184904727094</v>
       </c>
       <c r="E175" t="n">
         <v>25</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2423765200815382</v>
+        <v>0.5534212736594961</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7543947939645641</v>
+        <v>0.3590809469126792</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9170182627746253</v>
+        <v>0.08749777942782475</v>
       </c>
       <c r="E176" t="n">
         <v>25</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7960134328129954</v>
+        <v>0.782556364772086</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9472901140722884</v>
+        <v>0.1727205870422055</v>
       </c>
       <c r="D177" t="n">
-        <v>1.186227815211887</v>
+        <v>0.04472304818570864</v>
       </c>
       <c r="E177" t="n">
         <v>25</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.820327704419573</v>
+        <v>0.8117004540624688</v>
       </c>
       <c r="C178" t="n">
-        <v>1.469360900736903</v>
+        <v>0.1688883510067077</v>
       </c>
       <c r="D178" t="n">
-        <v>1.453335874650393</v>
+        <v>0.01941119493082379</v>
       </c>
       <c r="E178" t="n">
         <v>25</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7686667762070699</v>
+        <v>0.7850857849405863</v>
       </c>
       <c r="C179" t="n">
-        <v>1.146636494336443</v>
+        <v>0.179244360299656</v>
       </c>
       <c r="D179" t="n">
-        <v>1.075671028949959</v>
+        <v>0.03566985475975766</v>
       </c>
       <c r="E179" t="n">
         <v>25</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.05597478247759295</v>
+        <v>0.2892201028919461</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.02633908892131541</v>
+        <v>0.3639165213011054</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0522154955839323</v>
+        <v>0.3468633758069484</v>
       </c>
       <c r="E180" t="n">
         <v>25</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.101983637144711</v>
+        <v>0.3751237228836176</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1163173832161133</v>
+        <v>0.3253567963931193</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03439955209231126</v>
+        <v>0.2995194807232628</v>
       </c>
       <c r="E181" t="n">
         <v>25</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.004572178917862664</v>
+        <v>0.3088783305571446</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.002044708418541603</v>
+        <v>0.3486371191573555</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02511414094972829</v>
+        <v>0.3424845502854998</v>
       </c>
       <c r="E182" t="n">
         <v>25</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.827630449441132</v>
+        <v>0.7989913908052233</v>
       </c>
       <c r="C183" t="n">
-        <v>1.084721434638011</v>
+        <v>0.1606192631996745</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8945344305022263</v>
+        <v>0.04038934599510241</v>
       </c>
       <c r="E183" t="n">
         <v>25</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.09803896931223091</v>
+        <v>0.459877978360658</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4771160663942631</v>
+        <v>0.3821456876041556</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4954178936165901</v>
+        <v>0.1579763340351862</v>
       </c>
       <c r="E184" t="n">
         <v>25</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.09285872362943118</v>
+        <v>0.47488275150915</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6322040184086566</v>
+        <v>0.4097973136449702</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7722177506672968</v>
+        <v>0.1153199348458799</v>
       </c>
       <c r="E185" t="n">
         <v>25</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9051302352051307</v>
+        <v>0.8121496351139506</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9878823133666964</v>
+        <v>0.1370487189338687</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5633893606915145</v>
+        <v>0.05080164595218085</v>
       </c>
       <c r="E186" t="n">
         <v>25</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.007746774933894477</v>
+        <v>0.2768270607719357</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.09323546661228023</v>
+        <v>0.3377452907001764</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.06515650820774782</v>
+        <v>0.3854276485278878</v>
       </c>
       <c r="E187" t="n">
         <v>25</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4817652371104261</v>
+        <v>0.6281767476420252</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5955687008052108</v>
+        <v>0.2437921025942672</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3185900453082458</v>
+        <v>0.1280311497637074</v>
       </c>
       <c r="E188" t="n">
         <v>25</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.08335718717664675</v>
+        <v>0.4078835244899413</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2380269719121685</v>
+        <v>0.351118292253652</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2185083082493805</v>
+        <v>0.2409981832564068</v>
       </c>
       <c r="E189" t="n">
         <v>25</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.356643083685217</v>
+        <v>0.2888293139206368</v>
       </c>
       <c r="C190" t="n">
-        <v>0.6085755825483699</v>
+        <v>0.5845316169232248</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8963279847577996</v>
+        <v>0.1266390691561388</v>
       </c>
       <c r="E190" t="n">
         <v>25</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.094540397996463</v>
+        <v>0.8552065049901951</v>
       </c>
       <c r="C191" t="n">
-        <v>1.025257501057392</v>
+        <v>0.1031851485294842</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6807621694621685</v>
+        <v>0.04160834648032061</v>
       </c>
       <c r="E191" t="n">
         <v>25</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.06999836709765891</v>
+        <v>0.2853442312488956</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.02569629052010179</v>
+        <v>0.3707000850279931</v>
       </c>
       <c r="D192" t="n">
-        <v>0.07187941075505024</v>
+        <v>0.3439556837231113</v>
       </c>
       <c r="E192" t="n">
         <v>25</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.01880693342948232</v>
+        <v>0.301778733598362</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.01530274862909864</v>
+        <v>0.3514469043345978</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.34677436206704</v>
       </c>
       <c r="E193" t="n">
         <v>26</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2829344137652088</v>
+        <v>0.5743492462161577</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7924255624484813</v>
+        <v>0.3368864765730216</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7645993144499208</v>
+        <v>0.08876427721082056</v>
       </c>
       <c r="E194" t="n">
         <v>26</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2057674465595727</v>
+        <v>0.254236288965357</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.2533714762729142</v>
+        <v>0.2885507987840763</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.1617614968463578</v>
+        <v>0.4572129122505666</v>
       </c>
       <c r="E195" t="n">
         <v>26</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.6048174153327102</v>
+        <v>0.6712044703499681</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6030157522719133</v>
+        <v>0.1949272325473627</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01958441767918638</v>
+        <v>0.1338682971026691</v>
       </c>
       <c r="E196" t="n">
         <v>26</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6628728804941949</v>
+        <v>0.7404822410445452</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9916902711646657</v>
+        <v>0.2048839427621348</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7743962644683219</v>
+        <v>0.05463381619332015</v>
       </c>
       <c r="E197" t="n">
         <v>26</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6072129688909857</v>
+        <v>0.4088679616329577</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.008250681987393121</v>
+        <v>0.1590521464302823</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.7287679125033132</v>
+        <v>0.43207989193676</v>
       </c>
       <c r="E198" t="n">
         <v>26</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7576800638904789</v>
+        <v>0.7339480822255859</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6962636023959413</v>
+        <v>0.1604249406582851</v>
       </c>
       <c r="D199" t="n">
-        <v>0.06535806228509485</v>
+        <v>0.105626977116129</v>
       </c>
       <c r="E199" t="n">
         <v>26</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4232959557032027</v>
+        <v>0.5555460979318703</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3849836572783701</v>
+        <v>0.2490986403934285</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1045797131120051</v>
+        <v>0.1953552616747012</v>
       </c>
       <c r="E200" t="n">
         <v>26</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4005158797228931</v>
+        <v>0.6297157590428939</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8558464295772099</v>
+        <v>0.2976915551572688</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8895685460803293</v>
+        <v>0.07259268579983735</v>
       </c>
       <c r="E201" t="n">
         <v>26</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.07129067959787333</v>
+        <v>0.3194316316415294</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.01790782892785542</v>
+        <v>0.3212089236803631</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.06153939749046777</v>
+        <v>0.3593594446781075</v>
       </c>
       <c r="E202" t="n">
         <v>26</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.086796243179073</v>
+        <v>0.8619851715042829</v>
       </c>
       <c r="C203" t="n">
-        <v>1.08184818391634</v>
+        <v>0.09349204493165898</v>
       </c>
       <c r="D203" t="n">
-        <v>0.1092377635310325</v>
+        <v>0.04452278356405802</v>
       </c>
       <c r="E203" t="n">
         <v>26</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.08001756275362168</v>
+        <v>0.3196417927886021</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.0213247526517451</v>
+        <v>0.3122973123402623</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1192933602686412</v>
+        <v>0.3680608948711356</v>
       </c>
       <c r="E204" t="n">
         <v>26</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.024260585869165</v>
+        <v>0.8571167520927145</v>
       </c>
       <c r="C205" t="n">
-        <v>1.247220244734218</v>
+        <v>0.1152444975293392</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8802206199877963</v>
+        <v>0.02763875037794618</v>
       </c>
       <c r="E205" t="n">
         <v>26</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.03050970086492828</v>
+        <v>0.2959855819565767</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.02656705665221209</v>
+        <v>0.3535838771589693</v>
       </c>
       <c r="D206" t="n">
-        <v>0.02667710738556413</v>
+        <v>0.350430540884454</v>
       </c>
       <c r="E206" t="n">
         <v>26</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8477732105588505</v>
+        <v>0.7903685923705825</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9174873781977008</v>
+        <v>0.1504490750465569</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5576364966896995</v>
+        <v>0.05918233258286047</v>
       </c>
       <c r="E207" t="n">
         <v>26</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3849705044511049</v>
+        <v>0.5912733886385539</v>
       </c>
       <c r="C208" t="n">
-        <v>0.580212966112967</v>
+        <v>0.2730499352799965</v>
       </c>
       <c r="D208" t="n">
-        <v>0.3084320544095668</v>
+        <v>0.1356766760814494</v>
       </c>
       <c r="E208" t="n">
         <v>26</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4244078354988408</v>
+        <v>0.5605359243204593</v>
       </c>
       <c r="C209" t="n">
-        <v>0.3973565358826729</v>
+        <v>0.2416333851826976</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.009866899619917751</v>
+        <v>0.1978306904968433</v>
       </c>
       <c r="E209" t="n">
         <v>26</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D210" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E210" t="n">
         <v>26</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.03006876763621849</v>
+        <v>0.2961033680598137</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.02656458283583491</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D211" t="n">
-        <v>0.02623529311262734</v>
+        <v>0.3504902478753849</v>
       </c>
       <c r="E211" t="n">
         <v>26</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.03006876777745693</v>
+        <v>0.2961033680202055</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.02656458284466488</v>
+        <v>0.3534063841198324</v>
       </c>
       <c r="D212" t="n">
-        <v>0.02623529324634887</v>
+        <v>0.3504902478599619</v>
       </c>
       <c r="E212" t="n">
         <v>26</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.2847341160816649</v>
+        <v>0.5335402166097671</v>
       </c>
       <c r="C213" t="n">
-        <v>0.4751435435971021</v>
+        <v>0.321677274384132</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6143963268122524</v>
+        <v>0.1447825090061008</v>
       </c>
       <c r="E213" t="n">
         <v>26</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.02336916623246357</v>
+        <v>0.3163898933919083</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0317554963241977</v>
+        <v>0.3590904934637728</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0775749525424608</v>
+        <v>0.3245196131443189</v>
       </c>
       <c r="E214" t="n">
         <v>26</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.1385831828588394</v>
+        <v>0.3092401238207588</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1192451560770757</v>
+        <v>0.4222821016739373</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3231298972993234</v>
+        <v>0.2684777745053038</v>
       </c>
       <c r="E215" t="n">
         <v>26</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.2753335334001001</v>
+        <v>0.5203667011602034</v>
       </c>
       <c r="C216" t="n">
-        <v>0.4213168833672163</v>
+        <v>0.3344136243087887</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8066271452018037</v>
+        <v>0.1452196745310077</v>
       </c>
       <c r="E216" t="n">
         <v>27</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5909575344205925</v>
+        <v>0.6999659110917831</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8052611862835871</v>
+        <v>0.2107174899643565</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2877223824953893</v>
+        <v>0.08931659894386014</v>
       </c>
       <c r="E217" t="n">
         <v>27</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7544339197412323</v>
+        <v>0.6093560466340143</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3115221555791837</v>
+        <v>0.1350883024118716</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.6733500498532524</v>
+        <v>0.2555556509541142</v>
       </c>
       <c r="E218" t="n">
         <v>27</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3752426785249997</v>
+        <v>0.57260624794502</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5045003798042387</v>
+        <v>0.2914134943591893</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6205672345424699</v>
+        <v>0.1359802576957906</v>
       </c>
       <c r="E219" t="n">
         <v>27</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.2157497797121047</v>
+        <v>0.09480491011719648</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.8766242536335819</v>
+        <v>0.3690193983731971</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1920185463573151</v>
+        <v>0.5361756915096063</v>
       </c>
       <c r="E220" t="n">
         <v>27</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.611030947019925</v>
+        <v>0.6721196659554121</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6018589949031898</v>
+        <v>0.1951214125663155</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05445611501113155</v>
+        <v>0.1327589214782725</v>
       </c>
       <c r="E221" t="n">
         <v>27</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.2831311330122905</v>
+        <v>0.5408257234720455</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5085317762744176</v>
+        <v>0.3005621135007919</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2498691068949759</v>
+        <v>0.1586121630271623</v>
       </c>
       <c r="E222" t="n">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.6027483826103788</v>
+        <v>0.6950232701499731</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7305154814771259</v>
+        <v>0.2002880625384496</v>
       </c>
       <c r="D223" t="n">
-        <v>0.115482724896914</v>
+        <v>0.1046886673115774</v>
       </c>
       <c r="E223" t="n">
         <v>27</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3435607002336847</v>
+        <v>0.535787555891014</v>
       </c>
       <c r="C224" t="n">
-        <v>0.401796930019354</v>
+        <v>0.2838622780248127</v>
       </c>
       <c r="D224" t="n">
-        <v>0.3025267882488304</v>
+        <v>0.1803501660841735</v>
       </c>
       <c r="E224" t="n">
         <v>27</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.407873157756288</v>
+        <v>0.4022049055758952</v>
       </c>
       <c r="C225" t="n">
-        <v>0.02737333282026174</v>
+        <v>0.2119223527001769</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.4501801242713889</v>
+        <v>0.3858727417239282</v>
       </c>
       <c r="E225" t="n">
         <v>27</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.06952632289647809</v>
+        <v>0.3429504696304208</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0444314600184284</v>
+        <v>0.3508758584585134</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1918870652340043</v>
+        <v>0.3061736719110656</v>
       </c>
       <c r="E226" t="n">
         <v>27</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.5379738683126473</v>
+        <v>0.1170924478457009</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.4486172066227383</v>
+        <v>0.5551060093854255</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5583096996370065</v>
+        <v>0.3278015427688735</v>
       </c>
       <c r="E227" t="n">
         <v>27</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.05534271741738672</v>
+        <v>0.2838076848312174</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.05190374267948142</v>
+        <v>0.3573268521251551</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0248772844978367</v>
+        <v>0.3588654630436275</v>
       </c>
       <c r="E228" t="n">
         <v>27</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.02927396854463264</v>
+        <v>0.2965609466569811</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.02550394538908345</v>
+        <v>0.3533385896922986</v>
       </c>
       <c r="D229" t="n">
-        <v>0.02654149199491966</v>
+        <v>0.3501004636507201</v>
       </c>
       <c r="E229" t="n">
         <v>27</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.2636708597138646</v>
+        <v>0.2071600762539431</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.1738584313554345</v>
+        <v>0.4234153884966715</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1647812012123933</v>
+        <v>0.3694245352493852</v>
       </c>
       <c r="E230" t="n">
         <v>27</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4619420438044857</v>
+        <v>0.5835971380841459</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4323454858509883</v>
+        <v>0.2262465305260882</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1036148185511219</v>
+        <v>0.190156331389766</v>
       </c>
       <c r="E231" t="n">
         <v>27</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.03501531115748315</v>
+        <v>0.3843272383691256</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2169439326582332</v>
+        <v>0.4132405284518224</v>
       </c>
       <c r="D232" t="n">
-        <v>0.696250617864176</v>
+        <v>0.2024322331790519</v>
       </c>
       <c r="E232" t="n">
         <v>27</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3514481217291423</v>
+        <v>0.4129304827277722</v>
       </c>
       <c r="C233" t="n">
-        <v>0.07360259633328961</v>
+        <v>0.2438501338404859</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.2319274955465637</v>
+        <v>0.3432193834317419</v>
       </c>
       <c r="E233" t="n">
         <v>27</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.1058801811748424</v>
+        <v>0.2124169806310529</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.2490333595426779</v>
+        <v>0.3512422617255306</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.1027178126279034</v>
+        <v>0.4363407576434165</v>
       </c>
       <c r="E234" t="n">
         <v>27</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.09641404802994882</v>
+        <v>0.3600157864561169</v>
       </c>
       <c r="C235" t="n">
-        <v>0.08397043365332388</v>
+        <v>0.330720396246325</v>
       </c>
       <c r="D235" t="n">
-        <v>0.05123981503855976</v>
+        <v>0.3092638172975581</v>
       </c>
       <c r="E235" t="n">
         <v>27</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.03253627389894313</v>
+        <v>0.2954821240828197</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.02641660945870861</v>
+        <v>0.3544335189267299</v>
       </c>
       <c r="D236" t="n">
-        <v>0.02884576757677222</v>
+        <v>0.3500843569904502</v>
       </c>
       <c r="E236" t="n">
         <v>27</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.03002349458332626</v>
+        <v>0.2961259597930346</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.02651930790204306</v>
+        <v>0.3533986337251567</v>
       </c>
       <c r="D237" t="n">
-        <v>0.02623529500018046</v>
+        <v>0.3504754064818086</v>
       </c>
       <c r="E237" t="n">
         <v>27</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.0300084206278817</v>
+        <v>0.2961334958681199</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.02650417500622062</v>
+        <v>0.3533960664947967</v>
       </c>
       <c r="D238" t="n">
-        <v>0.02623535414531344</v>
+        <v>0.3504704376370833</v>
       </c>
       <c r="E238" t="n">
         <v>27</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.4311560451556407</v>
+        <v>0.5687296922270534</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4172155559769603</v>
+        <v>0.240382152351398</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.001943125400296567</v>
+        <v>0.1908881554215488</v>
       </c>
       <c r="E239" t="n">
         <v>27</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.132626818643647</v>
+        <v>0.7689200849738224</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5570503570368456</v>
+        <v>0.08509822882026045</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.5193489117623437</v>
+        <v>0.145981686205917</v>
       </c>
       <c r="E240" t="n">
         <v>27</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.03006876763621808</v>
+        <v>0.2961033680598139</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.0265645828358344</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753846</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.03006876763621848</v>
+        <v>0.2961033680598136</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.0265645828358348</v>
+        <v>0.3534063840648015</v>
       </c>
       <c r="D242" t="n">
-        <v>0.02623529311262745</v>
+        <v>0.3504902478753847</v>
       </c>
       <c r="E242" t="n">
         <v>27</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.01711230341224964</v>
+        <v>0.3600313409984537</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1383037661364525</v>
+        <v>0.3599095925043695</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1550725156224426</v>
+        <v>0.2800590664971764</v>
       </c>
       <c r="E243" t="n">
         <v>27</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4482970375266718</v>
+        <v>0.5936500669917387</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4896435655442817</v>
+        <v>0.2438157157932362</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1338703020173935</v>
+        <v>0.1625342172150251</v>
       </c>
       <c r="E244" t="n">
         <v>27</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.06446137473845399</v>
+        <v>0.2666582575995942</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.09099375398729144</v>
+        <v>0.3439593868155015</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.09710614347055556</v>
+        <v>0.3893823555849043</v>
       </c>
       <c r="E245" t="n">
         <v>27</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8446024752609702</v>
+        <v>0.7505804109754685</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6533150604708791</v>
+        <v>0.1277873013040257</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.385907142236904</v>
+        <v>0.1216322877205058</v>
       </c>
       <c r="E246" t="n">
         <v>27</v>
